--- a/To Be Modeled/Celsius.xlsx
+++ b/To Be Modeled/Celsius.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{4C8ACD44-6CA0-E74B-B786-073BE3236EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E60EB9-A0FD-3F4D-BD28-80263E596F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,27 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$107</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$3:$R$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$107:$R$107</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$28:$R$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$3:$R$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$A$107</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$107:$R$107</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$28:$R$28</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Sheet 1'!$A$107</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">'Sheet 1'!$B$107:$R$107</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">'Sheet 1'!$B$28:$R$28</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">'Sheet 1'!$B$3:$R$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -988,22 +968,10 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1018,9 +986,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1032,6 +997,21 @@
     <xf numFmtId="9" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2228,7 +2208,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2242,10 +2221,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2259,14 +2240,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0480000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2276,6 +2257,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2402,12 +2384,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>153.94</v>
-    <v>61.62</v>
-    <v>1.8062</v>
-    <v>0.36</v>
-    <v>2.4190000000000001E-3</v>
-    <v>-1.02</v>
-    <v>-6.8369999999999993E-3</v>
+    <v>69.540000000000006</v>
+    <v>1.8394999999999999</v>
+    <v>-0.04</v>
+    <v>-2.7389999999999999E-4</v>
+    <v>0.04</v>
+    <v>2.7399999999999999E-4</v>
     <v>USD</v>
     <v>Celsius Holdings, Inc. is a consumer-packaged goods company. It is engaged in the development, processing, marketing, sale, and distribution of functional drinks and liquid supplements to a range of consumers. Its core offerings include pre-and post-workout functional energy drinks and protein bars. Its flagship brand is CELSIUS, which is a calorie-burning functional energy drink. It seeks to combine nutritional science with mainstream beverages by using its thermogenic MetaPlus without the artificial preservatives found in many energy drinks or sodas. CELSIUS has no chemical preservatives, aspartame or high fructose corn syrup and is low in sodium. CELSIUS uses good-for-you ingredients and supplements such as green tea, ginger, calcium, chromium, B vitamins and vitamin C. Its product line includes CELSIUS Originals, CELSIUS HEAT, CELSIUS BCAA +Energy, CELSIUS On-the-Go, and CELSIUS Sweetened with Stevia. CELSIUS ready-to-drink products are packaged in a distinctive 12 ounce sleek.</v>
     <v>378</v>
@@ -2415,25 +2397,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2424 N. Federal Hwy, Suite 208, BOCA RATON, FL, 33431 US</v>
-    <v>152.7465</v>
+    <v>149.16</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45107.984061596871</v>
+    <v>45114.999770601564</v>
     <v>0</v>
-    <v>148.88999999999999</v>
-    <v>11456180000</v>
+    <v>145.77000000000001</v>
+    <v>11211990000</v>
     <v>CELSIUS HOLDINGS, INC.</v>
     <v>CELSIUS HOLDINGS, INC.</v>
-    <v>149.25</v>
+    <v>146.97</v>
     <v>429.56240000000003</v>
-    <v>148.83000000000001</v>
-    <v>149.19</v>
-    <v>148.16999999999999</v>
+    <v>146.05000000000001</v>
+    <v>146.01</v>
+    <v>146.05000000000001</v>
     <v>76789200</v>
     <v>CELH</v>
     <v>CELSIUS HOLDINGS, INC. (XNAS:CELH)</v>
-    <v>843923</v>
-    <v>1458852</v>
+    <v>720089</v>
+    <v>1421309</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -3020,9 +3002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T95" sqref="T95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4183,15 +4165,15 @@
       </c>
       <c r="Y16" s="37">
         <f>Z101/R3</f>
-        <v>17.527707908764327</v>
+        <v>17.154102484072926</v>
       </c>
       <c r="Z16" s="37">
         <f>Z101/R28</f>
-        <v>-61.17074785617411</v>
+        <v>-59.866885231896283</v>
       </c>
       <c r="AA16" s="38">
         <f>Z101/R107</f>
-        <v>114.65581777057187</v>
+        <v>112.21191376929082</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -4394,15 +4376,15 @@
       </c>
       <c r="Y19" s="37">
         <f>Z101/S3</f>
-        <v>10.256204118173679</v>
+        <v>10.037591763652641</v>
       </c>
       <c r="Z19" s="37">
         <f>Z101/S28</f>
-        <v>116.57623738196027</v>
+        <v>114.09139938130902</v>
       </c>
       <c r="AA19" s="38">
         <f>Z101/S105</f>
-        <v>85.863971735745807</v>
+        <v>84.033769761077821</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4423,7 +4405,7 @@
         <v>0.53225129546906502</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:N20" si="15">(F19/E19)-1</f>
+        <f t="shared" ref="F20" si="15">(F19/E19)-1</f>
         <v>1.5806642479095956</v>
       </c>
       <c r="G20" s="15" t="e">
@@ -4636,11 +4618,11 @@
       </c>
       <c r="Z22" s="42">
         <f>(-1*R98)/Z101</f>
-        <v>1.006094527146047E-3</v>
+        <v>1.0280066250505039E-3</v>
       </c>
       <c r="AA22" s="43">
         <f>R107/Z101</f>
-        <v>8.7217554193457156E-3</v>
+        <v>8.9117096964945568E-3</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -5012,7 +4994,7 @@
         <v>0.47465200699407029</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:N29" si="29">(F28/E28)-1</f>
+        <f t="shared" ref="F29" si="29">(F28/E28)-1</f>
         <v>1.5128662362262082</v>
       </c>
       <c r="G29" s="15" t="e">
@@ -5411,7 +5393,7 @@
         <v>34.785384265445963</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:I35" si="43">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="43">(D34-C34)/C34</f>
         <v>0.27823422349020177</v>
       </c>
       <c r="E35" s="23">
@@ -8183,10 +8165,10 @@
       <c r="R83" s="1">
         <v>173300000</v>
       </c>
-      <c r="Y83" s="47" t="s">
+      <c r="Y83" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="Z83" s="48"/>
+      <c r="Z83" s="65"/>
     </row>
     <row r="84" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8243,10 +8225,10 @@
       <c r="R84" s="1">
         <v>44920000</v>
       </c>
-      <c r="Y84" s="49" t="s">
+      <c r="Y84" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="Z84" s="49"/>
+      <c r="Z84" s="66"/>
     </row>
     <row r="85" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -8492,10 +8474,10 @@
       <c r="R88" s="1">
         <v>-8264000</v>
       </c>
-      <c r="Y88" s="50" t="s">
+      <c r="Y88" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="Z88" s="51">
+      <c r="Z88" s="48">
         <f>Z85/(Z86+Z87)</f>
         <v>3.6894940749876426</v>
       </c>
@@ -8704,10 +8686,10 @@
       <c r="R91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Y91" s="50" t="s">
+      <c r="Y91" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="Z91" s="51">
+      <c r="Z91" s="48">
         <f>Z89/Z90</f>
         <v>-0.22675941937850444</v>
       </c>
@@ -8767,10 +8749,10 @@
       <c r="R92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Y92" s="50" t="s">
+      <c r="Y92" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="Z92" s="51">
+      <c r="Z92" s="48">
         <f>Z88*(1-Z91)</f>
         <v>4.5261216092322734</v>
       </c>
@@ -8830,10 +8812,10 @@
       <c r="R93" s="1">
         <v>2592000</v>
       </c>
-      <c r="Y93" s="52" t="s">
+      <c r="Y93" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="Z93" s="52"/>
+      <c r="Z93" s="67"/>
     </row>
     <row r="94" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8893,9 +8875,9 @@
       <c r="Y94" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="Z94" s="53">
+      <c r="Z94" s="49">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -8956,9 +8938,9 @@
       <c r="Y95" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="Z95" s="54" cm="1">
+      <c r="Z95" s="50" cm="1">
         <f t="array" ref="Z95">_FV(A1,"Beta")</f>
-        <v>1.8062</v>
+        <v>1.8394999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9019,7 +9001,7 @@
       <c r="Y96" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="Z96" s="53">
+      <c r="Z96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -9078,12 +9060,12 @@
       <c r="R97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Y97" s="50" t="s">
+      <c r="Y97" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="Z97" s="51">
+      <c r="Z97" s="48">
         <f>(Z94)+((Z95)*(Z96-Z94))</f>
-        <v>0.120649852</v>
+        <v>0.12053504000000001</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9141,10 +9123,10 @@
       <c r="R98" s="1">
         <v>-11526000</v>
       </c>
-      <c r="Y98" s="52" t="s">
+      <c r="Y98" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="Z98" s="52"/>
+      <c r="Z98" s="67"/>
     </row>
     <row r="99" spans="1:26" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -9264,12 +9246,12 @@
       <c r="R100" s="10">
         <v>534112000</v>
       </c>
-      <c r="Y100" s="50" t="s">
+      <c r="Y100" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="Z100" s="51">
+      <c r="Z100" s="48">
         <f>Z99/Z103</f>
-        <v>1.2518688071189166E-4</v>
+        <v>1.2791302247429806E-4</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9330,9 +9312,9 @@
       <c r="Y101" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="Z101" s="55" cm="1">
+      <c r="Z101" s="51" cm="1">
         <f t="array" ref="Z101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11456180000</v>
+        <v>11211990000</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9390,12 +9372,12 @@
       <c r="R102" s="10">
         <v>636622000</v>
       </c>
-      <c r="Y102" s="50" t="s">
+      <c r="Y102" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="Z102" s="51">
+      <c r="Z102" s="48">
         <f>Z101/Z103</f>
-        <v>0.99987481311928805</v>
+        <v>0.99987208697752572</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="20" x14ac:dyDescent="0.25">
@@ -9453,12 +9435,12 @@
       <c r="R103" s="1">
         <v>16254708</v>
       </c>
-      <c r="Y103" s="50" t="s">
+      <c r="Y103" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="Z103" s="56">
+      <c r="Z103" s="52">
         <f>Z99+Z101</f>
-        <v>11457614343</v>
+        <v>11213424343</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9516,10 +9498,10 @@
       <c r="R104" s="11">
         <v>652927000</v>
       </c>
-      <c r="Y104" s="49" t="s">
+      <c r="Y104" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="Z104" s="49"/>
+      <c r="Z104" s="66"/>
     </row>
     <row r="105" spans="1:26" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -9617,7 +9599,7 @@
       </c>
       <c r="Z105" s="32">
         <f>(Z100*Z92)+(Z102*Z97)</f>
-        <v>0.12120135926735225</v>
+        <v>0.12109857189384268</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="19" x14ac:dyDescent="0.25">
@@ -9626,7 +9608,7 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:I106" si="60">(C107/B107)-1</f>
+        <f t="shared" ref="C106:F106" si="60">(C107/B107)-1</f>
         <v>174.18924302788844</v>
       </c>
       <c r="D106" s="15">
@@ -9774,17 +9756,17 @@
       <c r="T107" s="27"/>
       <c r="U107" s="27"/>
       <c r="V107" s="27"/>
-      <c r="W107" s="55">
+      <c r="W107" s="51">
         <f>W105*(1+Z107)/(Z108-Z107)</f>
-        <v>4030632071.187417</v>
-      </c>
-      <c r="X107" s="57" t="s">
+        <v>4034943249.5537133</v>
+      </c>
+      <c r="X107" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="Y107" s="58" t="s">
+      <c r="Y107" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="Z107" s="59">
+      <c r="Z107" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -9807,132 +9789,132 @@
       <c r="P108" s="13"/>
       <c r="Q108" s="13"/>
       <c r="R108" s="13"/>
-      <c r="S108" s="55">
+      <c r="S108" s="51">
         <f t="shared" ref="S108:V108" si="73">S107+S105</f>
         <v>133422432.81335084</v>
       </c>
-      <c r="T108" s="55">
+      <c r="T108" s="51">
         <f t="shared" si="73"/>
         <v>173132765.52499527</v>
       </c>
-      <c r="U108" s="55">
+      <c r="U108" s="51">
         <f t="shared" si="73"/>
         <v>224662029.21262851</v>
       </c>
-      <c r="V108" s="55">
+      <c r="V108" s="51">
         <f t="shared" si="73"/>
         <v>291527875.82919496</v>
       </c>
-      <c r="W108" s="55">
+      <c r="W108" s="51">
         <f>W107+W105</f>
-        <v>4408926982.3628445</v>
-      </c>
-      <c r="X108" s="57" t="s">
+        <v>4413238160.7291403</v>
+      </c>
+      <c r="X108" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="Y108" s="60" t="s">
+      <c r="Y108" s="56" t="s">
         <v>158</v>
       </c>
       <c r="Z108" s="29">
         <f>Z105</f>
-        <v>0.12120135926735225</v>
+        <v>0.12109857189384268</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="S109" s="61" t="s">
+      <c r="S109" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="T109" s="61"/>
+      <c r="T109" s="63"/>
     </row>
     <row r="110" spans="1:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="S110" s="62" t="s">
+      <c r="S110" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="T110" s="55">
+      <c r="T110" s="51">
         <f>NPV(Z108,S108,T108,U108,V108,W108)</f>
-        <v>3088968517.6833911</v>
+        <v>3092691444.8814912</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="S111" s="62" t="s">
+      <c r="S111" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="T111" s="55">
+      <c r="T111" s="51">
         <f>R40</f>
         <v>614159000</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="S112" s="62" t="s">
+      <c r="S112" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="T112" s="55">
+      <c r="T112" s="51">
         <f>Z99</f>
         <v>1434343</v>
       </c>
     </row>
     <row r="113" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S113" s="62" t="s">
+      <c r="S113" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="T113" s="55">
+      <c r="T113" s="51">
         <f>T110+T111-T112</f>
-        <v>3701693174.6833911</v>
+        <v>3705416101.8814912</v>
       </c>
     </row>
     <row r="114" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S114" s="62" t="s">
+      <c r="S114" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="T114" s="62">
+      <c r="T114" s="57">
         <f>R34*(1+(0.05*5))</f>
         <v>94561250</v>
       </c>
     </row>
     <row r="115" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S115" s="63" t="s">
+      <c r="S115" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="T115" s="64">
+      <c r="T115" s="59">
         <f>T113/T114</f>
-        <v>39.145983948852106</v>
+        <v>39.185354485917763</v>
       </c>
     </row>
     <row r="116" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S116" s="62" t="s">
+      <c r="S116" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="T116" s="65" cm="1">
+      <c r="T116" s="60" cm="1">
         <f t="array" ref="T116">_FV(A1,"Price")</f>
-        <v>149.19</v>
+        <v>146.01</v>
       </c>
     </row>
     <row r="117" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S117" s="63" t="s">
+      <c r="S117" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="T117" s="66">
+      <c r="T117" s="61">
         <f>T115/T116-1</f>
-        <v>-0.73760986695588104</v>
+        <v>-0.73162554286749015</v>
       </c>
     </row>
     <row r="118" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S118" s="63" t="s">
+      <c r="S118" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="T118" s="67" t="str">
+      <c r="T118" s="62" t="str">
         <f>IF(T115&gt;T116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="S109:T109"/>
     <mergeCell ref="Y83:Z83"/>
     <mergeCell ref="Y84:Z84"/>
     <mergeCell ref="Y93:Z93"/>
     <mergeCell ref="Y98:Z98"/>
     <mergeCell ref="Y104:Z104"/>
-    <mergeCell ref="S109:T109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S1" r:id="rId1" display="https://finbox.com/NASDAQCM:CELH/explorer/revenue_proj" xr:uid="{1B2D7DE6-0DB2-7D46-8D01-E4AF421D5E9C}"/>
